--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bdnf-Ntrk2.xlsx
@@ -543,10 +543,10 @@
         <v>0.097622</v>
       </c>
       <c r="I2">
-        <v>0.02633076257175775</v>
+        <v>0.1818801724491279</v>
       </c>
       <c r="J2">
-        <v>0.03898291886711459</v>
+        <v>0.2500781318045117</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.098765</v>
+        <v>0.1798956666666667</v>
       </c>
       <c r="N2">
-        <v>3.296295</v>
+        <v>0.539687</v>
       </c>
       <c r="O2">
-        <v>0.04219121913039277</v>
+        <v>0.01070918551864568</v>
       </c>
       <c r="P2">
-        <v>0.04777771124863078</v>
+        <v>0.01088280728907136</v>
       </c>
       <c r="Q2">
-        <v>0.03575454561</v>
+        <v>0.005853924923777778</v>
       </c>
       <c r="R2">
-        <v>0.32179091049</v>
+        <v>0.05268532431400001</v>
       </c>
       <c r="S2">
-        <v>0.001110926973535376</v>
+        <v>0.001947788508920979</v>
       </c>
       <c r="T2">
-        <v>0.001862514641261801</v>
+        <v>0.002721552115639489</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.097622</v>
       </c>
       <c r="I3">
-        <v>0.02633076257175775</v>
+        <v>0.1818801724491279</v>
       </c>
       <c r="J3">
-        <v>0.03898291886711459</v>
+        <v>0.2500781318045117</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>15.79937666666667</v>
       </c>
       <c r="N3">
-        <v>47.39812999999999</v>
+        <v>47.39813</v>
       </c>
       <c r="O3">
-        <v>0.6066765532820465</v>
+        <v>0.9405365839956962</v>
       </c>
       <c r="P3">
-        <v>0.6870059169052114</v>
+        <v>0.9557849543390003</v>
       </c>
       <c r="Q3">
-        <v>0.5141222496511111</v>
+        <v>0.5141222496511112</v>
       </c>
       <c r="R3">
         <v>4.62710024686</v>
       </c>
       <c r="S3">
-        <v>0.01597425628232191</v>
+        <v>0.1710649560918509</v>
       </c>
       <c r="T3">
-        <v>0.02678149591994352</v>
+        <v>0.2390209157879577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>0.097622</v>
       </c>
       <c r="I4">
-        <v>0.02633076257175775</v>
+        <v>0.1818801724491279</v>
       </c>
       <c r="J4">
-        <v>0.03898291886711459</v>
+        <v>0.2500781318045117</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.009167</v>
+        <v>0.01499966666666667</v>
       </c>
       <c r="N4">
-        <v>0.027501</v>
+        <v>0.044999</v>
       </c>
       <c r="O4">
-        <v>0.0003520014796324151</v>
+        <v>0.0008929298633347419</v>
       </c>
       <c r="P4">
-        <v>0.0003986096017039115</v>
+        <v>0.0009074064137192897</v>
       </c>
       <c r="Q4">
-        <v>0.0002983002913333334</v>
+        <v>0.0004880991531111111</v>
       </c>
       <c r="R4">
-        <v>0.002684702622</v>
+        <v>0.004392892378</v>
       </c>
       <c r="S4">
-        <v>9.268467385108543E-06</v>
+        <v>0.0001624062375282991</v>
       </c>
       <c r="T4">
-        <v>1.553896576287645E-05</v>
+        <v>0.0002269225007303517</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.097622</v>
       </c>
       <c r="I5">
-        <v>0.02633076257175775</v>
+        <v>0.1818801724491279</v>
       </c>
       <c r="J5">
-        <v>0.03898291886711459</v>
+        <v>0.2500781318045117</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.135195499999998</v>
+        <v>0.8039865</v>
       </c>
       <c r="N5">
-        <v>18.270391</v>
+        <v>1.607973</v>
       </c>
       <c r="O5">
-        <v>0.3507802261079284</v>
+        <v>0.04786130062232345</v>
       </c>
       <c r="P5">
-        <v>0.264817762244454</v>
+        <v>0.03242483195820901</v>
       </c>
       <c r="Q5">
-        <v>0.2972653517003333</v>
+        <v>0.026162256701</v>
       </c>
       <c r="R5">
-        <v>1.783592110202</v>
+        <v>0.156973540206</v>
       </c>
       <c r="S5">
-        <v>0.009236310848515361</v>
+        <v>0.008705021610827741</v>
       </c>
       <c r="T5">
-        <v>0.01032336934014639</v>
+        <v>0.008108741400184135</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.2033015</v>
+        <v>0.146372</v>
       </c>
       <c r="H6">
-        <v>2.406603</v>
+        <v>0.292744</v>
       </c>
       <c r="I6">
-        <v>0.9736692374282422</v>
+        <v>0.8181198275508721</v>
       </c>
       <c r="J6">
-        <v>0.9610170811328854</v>
+        <v>0.7499218681954883</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.098765</v>
+        <v>0.1798956666666667</v>
       </c>
       <c r="N6">
-        <v>3.296295</v>
+        <v>0.539687</v>
       </c>
       <c r="O6">
-        <v>0.04219121913039277</v>
+        <v>0.01070918551864568</v>
       </c>
       <c r="P6">
-        <v>0.04777771124863078</v>
+        <v>0.01088280728907136</v>
       </c>
       <c r="Q6">
-        <v>1.3221455726475</v>
+        <v>0.02633168852133334</v>
       </c>
       <c r="R6">
-        <v>7.932873435884998</v>
+        <v>0.157990131128</v>
       </c>
       <c r="S6">
-        <v>0.04108029215685739</v>
+        <v>0.008761397009724699</v>
       </c>
       <c r="T6">
-        <v>0.04591519660736897</v>
+        <v>0.008161255173431876</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>1.2033015</v>
+        <v>0.146372</v>
       </c>
       <c r="H7">
-        <v>2.406603</v>
+        <v>0.292744</v>
       </c>
       <c r="I7">
-        <v>0.9736692374282422</v>
+        <v>0.8181198275508721</v>
       </c>
       <c r="J7">
-        <v>0.9610170811328854</v>
+        <v>0.7499218681954883</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>15.79937666666667</v>
       </c>
       <c r="N7">
-        <v>47.39812999999999</v>
+        <v>47.39813</v>
       </c>
       <c r="O7">
-        <v>0.6066765532820465</v>
+        <v>0.9405365839956962</v>
       </c>
       <c r="P7">
-        <v>0.6870059169052114</v>
+        <v>0.9557849543390003</v>
       </c>
       <c r="Q7">
-        <v>19.01141364206499</v>
+        <v>2.312586361453334</v>
       </c>
       <c r="R7">
-        <v>114.06848185239</v>
+        <v>13.87551816872</v>
       </c>
       <c r="S7">
-        <v>0.5907022969997245</v>
+        <v>0.7694716279038453</v>
       </c>
       <c r="T7">
-        <v>0.6602244209852679</v>
+        <v>0.7167640385510426</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>25</v>
       </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.146372</v>
+      </c>
+      <c r="H8">
+        <v>0.292744</v>
+      </c>
+      <c r="I8">
+        <v>0.8181198275508721</v>
+      </c>
+      <c r="J8">
+        <v>0.7499218681954883</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.2033015</v>
-      </c>
-      <c r="H8">
-        <v>2.406603</v>
-      </c>
-      <c r="I8">
-        <v>0.9736692374282422</v>
-      </c>
-      <c r="J8">
-        <v>0.9610170811328854</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.009167</v>
+        <v>0.01499966666666667</v>
       </c>
       <c r="N8">
-        <v>0.027501</v>
+        <v>0.044999</v>
       </c>
       <c r="O8">
-        <v>0.0003520014796324151</v>
+        <v>0.0008929298633347419</v>
       </c>
       <c r="P8">
-        <v>0.0003986096017039115</v>
+        <v>0.0009074064137192897</v>
       </c>
       <c r="Q8">
-        <v>0.0110306648505</v>
+        <v>0.002195531209333333</v>
       </c>
       <c r="R8">
-        <v>0.06618398910299998</v>
+        <v>0.013173187256</v>
       </c>
       <c r="S8">
-        <v>0.0003427330122473065</v>
+        <v>0.0007305236258064429</v>
       </c>
       <c r="T8">
-        <v>0.0003830706359410351</v>
+        <v>0.0006804839129889379</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>1.2033015</v>
+        <v>0.146372</v>
       </c>
       <c r="H9">
-        <v>2.406603</v>
+        <v>0.292744</v>
       </c>
       <c r="I9">
-        <v>0.9736692374282422</v>
+        <v>0.8181198275508721</v>
       </c>
       <c r="J9">
-        <v>0.9610170811328854</v>
+        <v>0.7499218681954883</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.135195499999998</v>
+        <v>0.8039865</v>
       </c>
       <c r="N9">
-        <v>18.270391</v>
+        <v>1.607973</v>
       </c>
       <c r="O9">
-        <v>0.3507802261079284</v>
+        <v>0.04786130062232345</v>
       </c>
       <c r="P9">
-        <v>0.264817762244454</v>
+        <v>0.03242483195820901</v>
       </c>
       <c r="Q9">
-        <v>10.99239444794325</v>
+        <v>0.117681111978</v>
       </c>
       <c r="R9">
-        <v>43.96957779177298</v>
+        <v>0.470724447912</v>
       </c>
       <c r="S9">
-        <v>0.341543915259413</v>
+        <v>0.0391562790114957</v>
       </c>
       <c r="T9">
-        <v>0.2544943929043076</v>
+        <v>0.02431609055802488</v>
       </c>
     </row>
   </sheetData>
